--- a/data/trans_bre/P12A-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P12A-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-6,2</t>
+          <t>-1,48</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-3,23</t>
+          <t>-5,03</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-1,52</t>
+          <t>3,51</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-35,58%</t>
+          <t>-9,65</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-28,74%</t>
+          <t>-14,44%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-14,11%</t>
+          <t>-37,22%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>60,33%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-52,74%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-18,36; 7,16</t>
+          <t>-17,24; 10,16</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-13,66; 6,82</t>
+          <t>-22,32; 6,85</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-13,58; 8,5</t>
+          <t>-9,73; 14,16</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-74,55; 82,34</t>
+          <t>-27,26; 4,33</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-79,47; 143,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-75,85; 204,89</t>
+          <t>-91,08; 216,84</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-92,12; 110,17</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-4,24</t>
+          <t>-4,3</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-16,91</t>
+          <t>-22,39</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-11,87</t>
+          <t>-17,24</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-46,45%</t>
+          <t>-8,82</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-89,71%</t>
+          <t>-39,28%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-59,41%</t>
+          <t>-93,49%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-67,14%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-44,29%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-12,62; 2,99</t>
+          <t>-16,45; 6,79</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-36,27; -7,31</t>
+          <t>-51,22; -7,04</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-32,09; 0,06</t>
+          <t>-46,58; 0,1</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-84,66; 85,68</t>
+          <t>-42,16; 8,55</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -53,99</t>
+          <t>-87,22; 169,05</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-89,99; 9,95</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-93,31; 15,22</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-93,9; 161,72</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,14</t>
+          <t>7,73</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,31</t>
+          <t>3,19</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,86</t>
+          <t>4,57</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>25,49%</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-15,12%</t>
+          <t>163,42%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-16,33%</t>
+          <t>68,16%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>75,67%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>10,14%</t>
         </is>
       </c>
     </row>
@@ -802,32 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-18,34; 8,92</t>
+          <t>-0,49; 15,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-18,96; 5,3</t>
+          <t>-4,97; 9,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-28,4; 7,67</t>
+          <t>-4,68; 12,54</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-78,18; 298,86</t>
+          <t>-7,99; 8,82</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-81,45; 179,42</t>
+          <t>-32,78; 952,01</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-81,35; 283,59</t>
+          <t>-67,71; 661,95</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-58,6; 623,36</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-63,75; 330,6</t>
         </is>
       </c>
     </row>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,52</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,16</t>
+          <t>-2,13</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,75</t>
+          <t>-1,08</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>11,32%</t>
+          <t>4,71</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-1,06%</t>
+          <t>0,3%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>18,86%</t>
+          <t>-12,96%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-6,67%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>28,37%</t>
         </is>
       </c>
     </row>
@@ -882,32 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-7,0; 9,12</t>
+          <t>-11,36; 9,48</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-8,38; 8,05</t>
+          <t>-13,35; 8,81</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,46; 11,45</t>
+          <t>-11,67; 10,24</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-38,42; 106,81</t>
+          <t>-8,5; 16,29</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-42,96; 73,07</t>
+          <t>-56,14; 119,82</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-28,96; 114,07</t>
+          <t>-59,44; 89,15</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-55,02; 104,92</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-35,74; 152,61</t>
         </is>
       </c>
     </row>
@@ -924,32 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-5,15</t>
+          <t>-13,45</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-2,82</t>
+          <t>-15,96</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-8,71</t>
+          <t>-16,21</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-24,05%</t>
+          <t>-12,03</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-11,78%</t>
+          <t>-48,99%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-35,78%</t>
+          <t>-50,62%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-55,01%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-37,82%</t>
         </is>
       </c>
     </row>
@@ -962,32 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-15,6; 5,52</t>
+          <t>-28,08; 1,43</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-13,48; 9,2</t>
+          <t>-31,73; -0,99</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-19,05; 2,54</t>
+          <t>-29,13; -0,65</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-57,6; 37,54</t>
+          <t>-28,15; 5,13</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-47,06; 51,84</t>
+          <t>-82,85; 7,68</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-64,06; 13,83</t>
+          <t>-80,9; -2,29</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-79,76; -0,31</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-70,09; 23,96</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>6,01</t>
+          <t>7,17</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>9,78</t>
+          <t>-4,16</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,82</t>
+          <t>-5,92</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>33,32%</t>
+          <t>-0,34</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>47,22%</t>
+          <t>46,97%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>5,35%</t>
+          <t>-20,99%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-44,73%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-1,49%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-6,51; 19,32</t>
+          <t>-11,19; 24,06</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-4,86; 35,98</t>
+          <t>-23,23; 11,23</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-11,45; 15,57</t>
+          <t>-22,62; 5,9</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-31,18; 168,59</t>
+          <t>-19,96; 20,08</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-24,35; 225,97</t>
+          <t>-53,35; 294,94</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-57,82; 160,75</t>
+          <t>-76,11; 108,28</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-92,93; 143,98</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-63,48; 147,15</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,63</t>
+          <t>-0,93</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-2,25</t>
+          <t>-8,11</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-2,83</t>
+          <t>-5,45</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-4,46%</t>
+          <t>-3,69</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-14,24%</t>
+          <t>-6,69%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-18,14%</t>
+          <t>-44,14%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-33,34%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-19,3%</t>
         </is>
       </c>
     </row>
@@ -1122,44 +1268,61 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,3; 3,27</t>
+          <t>-6,43; 4,06</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-7,23; 3,23</t>
+          <t>-14,55; -2,66</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-8,19; 1,83</t>
+          <t>-12,83; 0,29</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-31,71; 29,34</t>
+          <t>-11,7; 2,86</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-38,87; 26,71</t>
+          <t>-37,59; 38,72</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-42,25; 15,11</t>
+          <t>-63,09; -16,42</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-59,02; 2,56</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-46,86; 19,19</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>

--- a/data/trans_bre/P12A-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P12A-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,187 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-1,48</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-5,03</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>3,51</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-9,65</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-14,44%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-37,22%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>60,33%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-52,74%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-1.041512672925629</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-2.54148477712448</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>4.867871799301243</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-8.35863465995131</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>-0.113342404794262</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>-0.2174871807174659</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.9272363466739134</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.4924635792082045</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-17,24; 10,16</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-22,32; 6,85</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-9,73; 14,16</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-27,26; 4,33</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-91,08; 216,84</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-92,12; 110,17</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-16.3325056377307</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-18.56308793602314</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-8.119989907162086</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-25.30375548903755</v>
+      </c>
+      <c r="G5" s="6" t="inlineStr"/>
+      <c r="H5" s="6" t="n">
+        <v>-0.9039146443548802</v>
+      </c>
+      <c r="I5" s="6" t="inlineStr"/>
+      <c r="J5" s="6" t="n">
+        <v>-0.9125738042098336</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>9.51339557766916</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>9.675040466282979</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>15.65432148147753</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>5.233053844979872</v>
+      </c>
+      <c r="G6" s="6" t="inlineStr"/>
+      <c r="H6" s="6" t="n">
+        <v>2.700486878762769</v>
+      </c>
+      <c r="I6" s="6" t="inlineStr"/>
+      <c r="J6" s="6" t="n">
+        <v>1.262888820544926</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-4,3</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-22,39</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-17,24</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-8,82</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-39,28%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-93,49%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-67,14%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-44,29%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-16,45; 6,79</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-51,22; -7,04</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-46,58; 0,1</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-42,16; 8,55</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-87,22; 169,05</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-93,31; 15,22</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-93,9; 161,72</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-7.279524625216879</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-23.50441007357398</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-17.98307422414679</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-9.795649995002341</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-0.5178101378866909</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.9356985529700835</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.6744823957252981</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.4736742289050744</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>7,73</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>3,19</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>4,57</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,81</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>163,42%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>68,16%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>75,67%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>10,14%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-24.42185888513583</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-47.50757526647128</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-46.17845459890182</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-43.94484131623134</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.9295339985494918</v>
+      </c>
+      <c r="H8" s="6" t="inlineStr"/>
+      <c r="I8" s="6" t="n">
+        <v>-0.9225038258632258</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.9397490297501671</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-0,49; 15,37</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-4,97; 9,63</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-4,68; 12,54</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-7,99; 8,82</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-32,78; 952,01</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-67,71; 661,95</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-58,6; 623,36</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-63,75; 330,6</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>4.698173453052277</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>-8.147289121078535</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>-0.5174092710389039</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>7.913149199716255</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>1.048205567871183</v>
+      </c>
+      <c r="H9" s="6" t="inlineStr"/>
+      <c r="I9" s="6" t="n">
+        <v>0.1634939340151833</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>1.460139528351821</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,299 +815,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>0,04</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-2,13</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-1,08</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>4,71</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>0,3%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-12,96%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-6,67%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>28,37%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>7.439196795898423</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>3.21685790227535</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>4.678556030159567</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0.6210246735220498</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>1.727484562455128</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.7415292455680614</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.7960015865789277</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.07689683343306299</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-11,36; 9,48</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-13,35; 8,81</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-11,67; 10,24</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-8,5; 16,29</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-56,14; 119,82</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-59,44; 89,15</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-55,02; 104,92</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-35,74; 152,61</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-0.3307587008072971</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-4.355108738227536</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-4.801077734911056</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-8.113230019231837</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.3304025469456473</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.655616056274155</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.6084937213590537</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.6485498385403514</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>14.7334845798043</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>9.653310738335602</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>12.45022475002761</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>8.628940704031562</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>9.276285140168438</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>7.025410546246982</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>6.584500276289915</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>3.378346044011713</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-13,45</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-15,96</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-16,21</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-12,03</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-48,99%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-50,62%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-55,01%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-37,82%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-28,08; 1,43</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-31,73; -0,99</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-29,13; -0,65</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-28,15; 5,13</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-82,85; 7,68</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-80,9; -2,29</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-79,76; -0,31</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-70,09; 23,96</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>0.2541884859194904</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-1.994848873084867</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.04936933236028007</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>4.807858220192057</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.0187366366252073</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.1248737983830293</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.003199040654641104</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.2950861229984746</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>7,17</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-4,16</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-5,92</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-0,34</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>46,97%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-20,99%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>-44,73%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>-1,49%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-10.29842323089414</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-13.18931471142021</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-10.25177583049144</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-7.609994400788792</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.5312739944105038</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.5862177899334051</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.515262937714231</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.3393440085207846</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-11,19; 24,06</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-23,23; 11,23</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-22,62; 5,9</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-19,96; 20,08</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-53,35; 294,94</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-76,11; 108,28</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-92,93; 143,98</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-63,48; 147,15</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>10.06191761659108</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>8.599630929345198</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>11.15202592688486</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>16.37939097666658</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>1.297245162935752</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.8932258953541431</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>1.278186556509056</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>1.749838942664702</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1218,97 +1015,297 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-0,93</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-8,11</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-5,45</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>-3,69</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>-6,69%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>-44,14%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>-33,34%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>-19,3%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-14.41659309822228</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-16.12503848693855</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-15.77229203314919</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>-11.48662007047614</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>-0.5147793018743154</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>-0.5084233469714599</v>
+      </c>
+      <c r="I16" s="6" t="n">
+        <v>-0.5436012427728069</v>
+      </c>
+      <c r="J16" s="6" t="n">
+        <v>-0.3696559455921959</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-6,43; 4,06</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-14,55; -2,66</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-12,83; 0,29</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-11,7; 2,86</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>-37,59; 38,72</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>-63,09; -16,42</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>-59,02; 2,56</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>-46,86; 19,19</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-29.4450746425531</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-31.56337741031121</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-28.546620760708</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>-27.19222239190137</v>
+      </c>
+      <c r="G17" s="6" t="n">
+        <v>-0.8403445669562387</v>
+      </c>
+      <c r="H17" s="6" t="n">
+        <v>-0.8109286479120915</v>
+      </c>
+      <c r="I17" s="6" t="n">
+        <v>-0.8022953698049164</v>
+      </c>
+      <c r="J17" s="6" t="n">
+        <v>-0.6947435127853944</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>0.1228132082911172</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>-1.094495295438573</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>-0.4122572297923363</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>4.913132113537537</v>
+      </c>
+      <c r="G18" s="6" t="n">
+        <v>0.03865405638410974</v>
+      </c>
+      <c r="H18" s="6" t="n">
+        <v>-0.02745675813919634</v>
+      </c>
+      <c r="I18" s="6" t="n">
+        <v>0.04344530922018681</v>
+      </c>
+      <c r="J18" s="6" t="n">
+        <v>0.2440519869087542</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>5.856793961320711</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>-3.563513895442691</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>-6.25816306532557</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>2.03239885618687</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>0.3395736679954887</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>-0.1722223794839971</v>
+      </c>
+      <c r="I19" s="6" t="n">
+        <v>-0.4833206229969469</v>
+      </c>
+      <c r="J19" s="6" t="n">
+        <v>0.09209726165371324</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>-15.88938446550449</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-23.7570088748314</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>-22.53441918241487</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>-16.5875491668367</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>-0.6219842800389837</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <v>-0.7422197331843778</v>
+      </c>
+      <c r="I20" s="6" t="n">
+        <v>-0.9324723169623985</v>
+      </c>
+      <c r="J20" s="6" t="n">
+        <v>-0.5912055461731329</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>22.62004367838046</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>14.61584268776133</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>5.098474593310853</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>24.30127843766306</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <v>2.573283974995798</v>
+      </c>
+      <c r="H21" s="6" t="n">
+        <v>1.3596169572381</v>
+      </c>
+      <c r="I21" s="6" t="n">
+        <v>1.251305182101671</v>
+      </c>
+      <c r="J21" s="6" t="n">
+        <v>1.896922390081817</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-1.821779266337906</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-7.734026104107053</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>-5.065275195231522</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>-3.201997389245675</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>-0.1270959646388288</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <v>-0.4272005857003923</v>
+      </c>
+      <c r="I22" s="6" t="n">
+        <v>-0.3149075547179447</v>
+      </c>
+      <c r="J22" s="6" t="n">
+        <v>-0.1707626215615447</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-8.071291195962674</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-13.73209220097329</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-12.07957024216297</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>-11.66299081477106</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <v>-0.4302012930046556</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <v>-0.6191726366003512</v>
+      </c>
+      <c r="I23" s="6" t="n">
+        <v>-0.566653353374303</v>
+      </c>
+      <c r="J23" s="6" t="n">
+        <v>-0.4723273198342154</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>3.125756974140422</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>-2.110444768110034</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.4876929223891844</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>3.452971515670649</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>0.284227614891931</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>-0.1421504596735875</v>
+      </c>
+      <c r="I24" s="6" t="n">
+        <v>0.05255697982805384</v>
+      </c>
+      <c r="J24" s="6" t="n">
+        <v>0.241044376880319</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1316,16 +1313,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
